--- a/HIB_within_host_model_output.xlsx
+++ b/HIB_within_host_model_output.xlsx
@@ -403,7 +403,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.989319943397891</v>
+        <v>0.989636750480361</v>
       </c>
     </row>
     <row r="4">
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.924294246132183</v>
+        <v>0.927033561596328</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.697878852045029</v>
+        <v>0.786066447650801</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.403491261506974</v>
+        <v>0.780604452885689</v>
       </c>
     </row>
     <row r="7">
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210745988691252</v>
+        <v>0.779515018052125</v>
       </c>
     </row>
     <row r="8">
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.107962533822535</v>
+        <v>0.778450396776593</v>
       </c>
     </row>
     <row r="9">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0551253847017192</v>
+        <v>0.777387636713427</v>
       </c>
     </row>
     <row r="10">
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0281272792426918</v>
+        <v>0.776326611303073</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0143487384725675</v>
+        <v>0.775267316138607</v>
       </c>
     </row>
     <row r="12">
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00731889393557182</v>
+        <v>0.774209747512488</v>
       </c>
     </row>
     <row r="13">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00373311500201805</v>
+        <v>0.773153901639321</v>
       </c>
     </row>
     <row r="14">
@@ -557,7 +557,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00190440693677456</v>
+        <v>0.772099775215769</v>
       </c>
     </row>
     <row r="15">
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.986087819712365</v>
+        <v>0.986468156922542</v>
       </c>
     </row>
     <row r="17">
@@ -599,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.875585122305095</v>
+        <v>0.87966239562991</v>
       </c>
     </row>
     <row r="18">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0.564804050310577</v>
+        <v>0.796677119858037</v>
       </c>
     </row>
     <row r="19">
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.298280591081259</v>
+        <v>0.795122051978064</v>
       </c>
     </row>
     <row r="20">
@@ -641,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>0.15238928515067</v>
+        <v>0.793770562358964</v>
       </c>
     </row>
     <row r="21">
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0775859442890121</v>
+        <v>0.792422050738447</v>
       </c>
     </row>
     <row r="22">
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0394859536527413</v>
+        <v>0.791076196483307</v>
       </c>
     </row>
     <row r="23">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0200940934230011</v>
+        <v>0.789732992194095</v>
       </c>
     </row>
     <row r="24">
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0102254508995439</v>
+        <v>0.788392431155492</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00520385006784424</v>
+        <v>0.787054506941178</v>
       </c>
     </row>
     <row r="26">
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00264808204092211</v>
+        <v>0.785719213626266</v>
       </c>
     </row>
     <row r="27">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00134751035778377</v>
+        <v>0.784386544956201</v>
       </c>
     </row>
     <row r="28">
@@ -767,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>0.981638449960556</v>
+        <v>0.982099270701854</v>
       </c>
     </row>
     <row r="30">
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>0.809023911200712</v>
+        <v>0.817476066908396</v>
       </c>
     </row>
     <row r="31">
@@ -795,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>0.461868907659358</v>
+        <v>0.725387097098311</v>
       </c>
     </row>
     <row r="32">
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>0.236288828115113</v>
+        <v>0.723912289897627</v>
       </c>
     </row>
     <row r="33">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>0.119845951897026</v>
+        <v>0.722628691809015</v>
       </c>
     </row>
     <row r="34">
@@ -837,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0607649368599782</v>
+        <v>0.721347963457856</v>
       </c>
     </row>
     <row r="35">
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0308126301567611</v>
+        <v>0.720069821785257</v>
       </c>
     </row>
     <row r="36">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0156262009841306</v>
+        <v>0.718794259705135</v>
       </c>
     </row>
     <row r="37">
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00792499392456335</v>
+        <v>0.717521270266414</v>
       </c>
     </row>
     <row r="38">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>0.00401940639086865</v>
+        <v>0.71625084765991</v>
       </c>
     </row>
     <row r="39">
@@ -907,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00203869138766719</v>
+        <v>0.714982985937305</v>
       </c>
     </row>
     <row r="40">
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00103368593764976</v>
+        <v>0.713717678946989</v>
       </c>
     </row>
     <row r="41">
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>0.975818258859574</v>
+        <v>0.976389013386355</v>
       </c>
     </row>
     <row r="43">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>0.737471908138169</v>
+        <v>0.747254651457539</v>
       </c>
     </row>
     <row r="44">
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>0.393393031442304</v>
+        <v>0.540690871589707</v>
       </c>
     </row>
     <row r="45">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>0.199287517155921</v>
+        <v>0.535552471740689</v>
       </c>
     </row>
     <row r="46">
@@ -1005,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>0.100722390904832</v>
+        <v>0.534743784055443</v>
       </c>
     </row>
     <row r="47">
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0509023003153502</v>
+        <v>0.533971628819579</v>
       </c>
     </row>
     <row r="48">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0257249169377003</v>
+        <v>0.533201025357181</v>
       </c>
     </row>
     <row r="49">
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0130007283814674</v>
+        <v>0.532431677457503</v>
       </c>
     </row>
     <row r="50">
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00657032936340031</v>
+        <v>0.531663580207142</v>
       </c>
     </row>
     <row r="51">
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00332056898273694</v>
+        <v>0.530896730903446</v>
       </c>
     </row>
     <row r="52">
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>0.00167786607654525</v>
+        <v>0.530131127242109</v>
       </c>
     </row>
     <row r="53">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>0.000847898973747237</v>
+        <v>0.529366766622666</v>
       </c>
     </row>
     <row r="54">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>0.968916280383261</v>
+        <v>0.969619451507722</v>
       </c>
     </row>
     <row r="56">
@@ -1145,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>0.676226306022635</v>
+        <v>0.684667178620252</v>
       </c>
     </row>
     <row r="57">
@@ -1159,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>0.349892623624995</v>
+        <v>0.383352422506345</v>
       </c>
     </row>
     <row r="58">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>0.17673579179487</v>
+        <v>0.296470019180238</v>
       </c>
     </row>
     <row r="59">
@@ -1187,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0892025291404739</v>
+        <v>0.291483512490696</v>
       </c>
     </row>
     <row r="60">
@@ -1201,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0450171013764424</v>
+        <v>0.290874977923273</v>
       </c>
     </row>
     <row r="61">
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0227169329585837</v>
+        <v>0.290559668053524</v>
       </c>
     </row>
     <row r="62">
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0114636653074627</v>
+        <v>0.290265751639214</v>
       </c>
     </row>
     <row r="63">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00578413640439624</v>
+        <v>0.289973681733242</v>
       </c>
     </row>
     <row r="64">
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0029182590070875</v>
+        <v>0.289682044833282</v>
       </c>
     </row>
     <row r="65">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>0.00147211442991054</v>
+        <v>0.289390738327098</v>
       </c>
     </row>
     <row r="66">
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>0.000742528457336204</v>
+        <v>0.289099754408627</v>
       </c>
     </row>
     <row r="67">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>0.962043596443477</v>
+        <v>0.96287517164207</v>
       </c>
     </row>
     <row r="69">
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>0.63296359163421</v>
+        <v>0.639956638539002</v>
       </c>
     </row>
     <row r="70">
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>0.323503861816221</v>
+        <v>0.335775335782822</v>
       </c>
     </row>
     <row r="71">
@@ -1355,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>0.163261218198969</v>
+        <v>0.182808745442064</v>
       </c>
     </row>
     <row r="72">
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0823639556616056</v>
+        <v>0.115747553344077</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0415475681954557</v>
+        <v>0.100538027084792</v>
       </c>
     </row>
     <row r="74">
@@ -1397,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0209571748527807</v>
+        <v>0.0979627930856098</v>
       </c>
     </row>
     <row r="75">
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0105707386976207</v>
+        <v>0.0971864294634876</v>
       </c>
     </row>
     <row r="76">
@@ -1425,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>0.00533177070278817</v>
+        <v>0.0968925833412087</v>
       </c>
     </row>
     <row r="77">
@@ -1439,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>0.00268891973104039</v>
+        <v>0.096750357362329</v>
       </c>
     </row>
     <row r="78">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>0.00135609137581383</v>
+        <v>0.0966581235668242</v>
       </c>
     </row>
     <row r="79">
@@ -1467,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>0.000684268892051767</v>
+        <v>0.096582653180683</v>
       </c>
     </row>
     <row r="80">
@@ -1495,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>3339.70670251698</v>
+        <v>989.641935159581</v>
       </c>
     </row>
     <row r="82">
@@ -1509,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>8230.47449396192</v>
+        <v>927.033671753443</v>
       </c>
     </row>
     <row r="83">
@@ -1523,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>11954.9601913178</v>
+        <v>211702.779570561</v>
       </c>
     </row>
     <row r="84">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>11904.8890976057</v>
+        <v>210519.636294242</v>
       </c>
     </row>
     <row r="85">
@@ -1551,7 +1551,7 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>11148.217676438</v>
+        <v>210513.238349669</v>
       </c>
     </row>
     <row r="86">
@@ -1565,7 +1565,7 @@
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>10677.5214650028</v>
+        <v>210513.060611997</v>
       </c>
     </row>
     <row r="87">
@@ -1579,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>10433.6316744001</v>
+        <v>210512.916245009</v>
       </c>
     </row>
     <row r="88">
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>10310.3214102348</v>
+        <v>210512.772057165</v>
       </c>
     </row>
     <row r="89">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>10247.875596524</v>
+        <v>210512.627870378</v>
       </c>
     </row>
     <row r="90">
@@ -1621,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>10216.1105949099</v>
+        <v>210512.483683695</v>
       </c>
     </row>
     <row r="91">
@@ -1635,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>10199.9027264565</v>
+        <v>210512.33949711</v>
       </c>
     </row>
     <row r="92">
@@ -1649,7 +1649,7 @@
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>10191.6183135951</v>
+        <v>210512.195310625</v>
       </c>
     </row>
     <row r="93">
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>3246.56312423756</v>
+        <v>986.473066436785</v>
       </c>
     </row>
     <row r="95">
@@ -1691,7 +1691,7 @@
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7605.69422553835</v>
+        <v>10478.7805513616</v>
       </c>
     </row>
     <row r="96">
@@ -1705,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>10128.8434883073</v>
+        <v>258606.643135288</v>
       </c>
     </row>
     <row r="97">
@@ -1719,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>10278.0777235927</v>
+        <v>258541.168412109</v>
       </c>
     </row>
     <row r="98">
@@ -1733,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>10134.9722786589</v>
+        <v>258540.888896867</v>
       </c>
     </row>
     <row r="99">
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>10039.6725183212</v>
+        <v>258540.711653322</v>
       </c>
     </row>
     <row r="100">
@@ -1761,7 +1761,7 @@
         <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>9988.19648127725</v>
+        <v>258540.534570451</v>
       </c>
     </row>
     <row r="101">
@@ -1775,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>9961.1210121796</v>
+        <v>258540.357487952</v>
       </c>
     </row>
     <row r="102">
@@ -1789,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>9946.90947670006</v>
+        <v>258540.180405576</v>
       </c>
     </row>
     <row r="103">
@@ -1803,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>9939.44401220262</v>
+        <v>258540.003323321</v>
       </c>
     </row>
     <row r="104">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="D104" t="n">
-        <v>9935.51746615362</v>
+        <v>258539.826241188</v>
       </c>
     </row>
     <row r="105">
@@ -1831,7 +1831,7 @@
         <v>5</v>
       </c>
       <c r="D105" t="n">
-        <v>9933.45213548532</v>
+        <v>258539.649159176</v>
       </c>
     </row>
     <row r="106">
@@ -1859,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="D107" t="n">
-        <v>2641.39060519578</v>
+        <v>982.103823092091</v>
       </c>
     </row>
     <row r="108">
@@ -1873,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="D108" t="n">
-        <v>5211.8708031729</v>
+        <v>30851.1941534829</v>
       </c>
     </row>
     <row r="109">
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>6414.32022915292</v>
+        <v>272910.22955132</v>
       </c>
     </row>
     <row r="110">
@@ -1901,7 +1901,7 @@
         <v>5</v>
       </c>
       <c r="D110" t="n">
-        <v>6813.87606770172</v>
+        <v>272839.001303876</v>
       </c>
     </row>
     <row r="111">
@@ -1915,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>7057.75549152496</v>
+        <v>272838.70987436</v>
       </c>
     </row>
     <row r="112">
@@ -1929,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="D112" t="n">
-        <v>7227.41974683696</v>
+        <v>272838.52284459</v>
       </c>
     </row>
     <row r="113">
@@ -1943,7 +1943,7 @@
         <v>5</v>
       </c>
       <c r="D113" t="n">
-        <v>7345.15839805233</v>
+        <v>272838.335968726</v>
       </c>
     </row>
     <row r="114">
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="D114" t="n">
-        <v>7425.94360820927</v>
+        <v>272838.149093215</v>
       </c>
     </row>
     <row r="115">
@@ -1971,7 +1971,7 @@
         <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>7480.8975011546</v>
+        <v>272837.962217833</v>
       </c>
     </row>
     <row r="116">
@@ -1985,7 +1985,7 @@
         <v>5</v>
       </c>
       <c r="D116" t="n">
-        <v>7518.05789190487</v>
+        <v>272837.77534258</v>
       </c>
     </row>
     <row r="117">
@@ -1999,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="D117" t="n">
-        <v>7543.08482431502</v>
+        <v>272837.588467455</v>
       </c>
     </row>
     <row r="118">
@@ -2013,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="D118" t="n">
-        <v>7559.89749415926</v>
+        <v>272837.401592459</v>
       </c>
     </row>
     <row r="119">
@@ -2041,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="D120" t="n">
-        <v>2060.09235174689</v>
+        <v>976.393124561144</v>
       </c>
     </row>
     <row r="121">
@@ -2055,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="D121" t="n">
-        <v>3141.67643148847</v>
+        <v>14408.8963740843</v>
       </c>
     </row>
     <row r="122">
@@ -2069,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="D122" t="n">
-        <v>3306.57486781333</v>
+        <v>236043.385284324</v>
       </c>
     </row>
     <row r="123">
@@ -2083,7 +2083,7 @@
         <v>5</v>
       </c>
       <c r="D123" t="n">
-        <v>3299.10602012241</v>
+        <v>234138.795486705</v>
       </c>
     </row>
     <row r="124">
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="D124" t="n">
-        <v>3285.50970154029</v>
+        <v>234123.088830915</v>
       </c>
     </row>
     <row r="125">
@@ -2111,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="D125" t="n">
-        <v>3273.33867946994</v>
+        <v>234122.79771926</v>
       </c>
     </row>
     <row r="126">
@@ -2125,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="D126" t="n">
-        <v>3262.67349560945</v>
+        <v>234122.636261246</v>
       </c>
     </row>
     <row r="127">
@@ -2139,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="D127" t="n">
-        <v>3253.32843123458</v>
+        <v>234122.475894077</v>
       </c>
     </row>
     <row r="128">
@@ -2153,7 +2153,7 @@
         <v>5</v>
       </c>
       <c r="D128" t="n">
-        <v>3245.13494177537</v>
+        <v>234122.315536194</v>
       </c>
     </row>
     <row r="129">
@@ -2167,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="D129" t="n">
-        <v>3237.94639617415</v>
+        <v>234122.155178498</v>
       </c>
     </row>
     <row r="130">
@@ -2181,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="D130" t="n">
-        <v>3231.63588971423</v>
+        <v>234121.994820914</v>
       </c>
     </row>
     <row r="131">
@@ -2195,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="D131" t="n">
-        <v>3226.09343072098</v>
+        <v>234121.834463438</v>
       </c>
     </row>
     <row r="132">
@@ -2223,7 +2223,7 @@
         <v>5</v>
       </c>
       <c r="D133" t="n">
-        <v>1675.44767075538</v>
+        <v>969.623064149636</v>
       </c>
     </row>
     <row r="134">
@@ -2237,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="D134" t="n">
-        <v>1991.56498903188</v>
+        <v>6072.35427272914</v>
       </c>
     </row>
     <row r="135">
@@ -2251,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="D135" t="n">
-        <v>1757.2171638123</v>
+        <v>47240.3352761819</v>
       </c>
     </row>
     <row r="136">
@@ -2265,7 +2265,7 @@
         <v>5</v>
       </c>
       <c r="D136" t="n">
-        <v>1524.32238440708</v>
+        <v>185514.313250308</v>
       </c>
     </row>
     <row r="137">
@@ -2279,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="D137" t="n">
-        <v>1329.47546262098</v>
+        <v>182579.074869429</v>
       </c>
     </row>
     <row r="138">
@@ -2293,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="D138" t="n">
-        <v>1165.46609507821</v>
+        <v>182381.373735243</v>
       </c>
     </row>
     <row r="139">
@@ -2307,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="D139" t="n">
-        <v>1026.1230763574</v>
+        <v>182367.016748462</v>
       </c>
     </row>
     <row r="140">
@@ -2321,7 +2321,7 @@
         <v>5</v>
       </c>
       <c r="D140" t="n">
-        <v>906.784083101716</v>
+        <v>182365.861862183</v>
       </c>
     </row>
     <row r="141">
@@ -2335,7 +2335,7 @@
         <v>5</v>
       </c>
       <c r="D141" t="n">
-        <v>803.872418921174</v>
+        <v>182365.662389059</v>
       </c>
     </row>
     <row r="142">
@@ -2349,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="D142" t="n">
-        <v>714.60005226832</v>
+        <v>182365.532082834</v>
       </c>
     </row>
     <row r="143">
@@ -2363,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="D143" t="n">
-        <v>636.760514575412</v>
+        <v>182365.40678416</v>
       </c>
     </row>
     <row r="144">
@@ -2377,7 +2377,7 @@
         <v>5</v>
       </c>
       <c r="D144" t="n">
-        <v>568.58543999261</v>
+        <v>182365.281848094</v>
       </c>
     </row>
     <row r="145">
@@ -2405,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="D146" t="n">
-        <v>1442.74766987523</v>
+        <v>962.878305279619</v>
       </c>
     </row>
     <row r="147">
@@ -2419,7 +2419,7 @@
         <v>5</v>
       </c>
       <c r="D147" t="n">
-        <v>1417.31237898123</v>
+        <v>3132.04554879829</v>
       </c>
     </row>
     <row r="148">
@@ -2433,7 +2433,7 @@
         <v>5</v>
       </c>
       <c r="D148" t="n">
-        <v>1087.36089932303</v>
+        <v>9206.168997699</v>
       </c>
     </row>
     <row r="149">
@@ -2447,7 +2447,7 @@
         <v>5</v>
       </c>
       <c r="D149" t="n">
-        <v>828.936535775694</v>
+        <v>28078.9207478922</v>
       </c>
     </row>
     <row r="150">
@@ -2461,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="D150" t="n">
-        <v>634.744424140687</v>
+        <v>99620.5106310878</v>
       </c>
     </row>
     <row r="151">
@@ -2475,7 +2475,7 @@
         <v>5</v>
       </c>
       <c r="D151" t="n">
-        <v>487.768593104143</v>
+        <v>151715.58170249</v>
       </c>
     </row>
     <row r="152">
@@ -2489,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="D152" t="n">
-        <v>375.835669899221</v>
+        <v>147935.109528485</v>
       </c>
     </row>
     <row r="153">
@@ -2503,7 +2503,7 @@
         <v>5</v>
       </c>
       <c r="D153" t="n">
-        <v>290.184967844876</v>
+        <v>146865.404081183</v>
       </c>
     </row>
     <row r="154">
@@ -2517,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="D154" t="n">
-        <v>224.407032153268</v>
+        <v>146523.144380071</v>
       </c>
     </row>
     <row r="155">
@@ -2531,7 +2531,7 @@
         <v>5</v>
       </c>
       <c r="D155" t="n">
-        <v>173.749335010386</v>
+        <v>146409.562815365</v>
       </c>
     </row>
     <row r="156">
@@ -2545,7 +2545,7 @@
         <v>5</v>
       </c>
       <c r="D156" t="n">
-        <v>134.652881226742</v>
+        <v>146371.382437722</v>
       </c>
     </row>
     <row r="157">
@@ -2559,7 +2559,7 @@
         <v>5</v>
       </c>
       <c r="D157" t="n">
-        <v>104.429403466118</v>
+        <v>146358.454055274</v>
       </c>
     </row>
     <row r="158">
@@ -2587,7 +2587,7 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>69875.8527896488</v>
+        <v>68026.417120002</v>
       </c>
     </row>
     <row r="160">
@@ -2601,7 +2601,7 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>408863.68151884</v>
+        <v>395150.72539197</v>
       </c>
     </row>
     <row r="161">
@@ -2615,7 +2615,7 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1271750.14087642</v>
+        <v>87038.5873442801</v>
       </c>
     </row>
     <row r="162">
@@ -2629,7 +2629,7 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>1817288.20423596</v>
+        <v>455.954177183036</v>
       </c>
     </row>
     <row r="163">
@@ -2643,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1938685.6169587</v>
+        <v>2.44601635985512</v>
       </c>
     </row>
     <row r="164">
@@ -2657,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1959145.14157185</v>
+        <v>0.0131235760303444</v>
       </c>
     </row>
     <row r="165">
@@ -2671,7 +2671,7 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1963034.65950192</v>
+        <v>0.0000703319139318411</v>
       </c>
     </row>
     <row r="166">
@@ -2685,7 +2685,7 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1964062.6799677</v>
+        <v>0.000000387547135639286</v>
       </c>
     </row>
     <row r="167">
@@ -2699,7 +2699,7 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>1964447.79860334</v>
+        <v>-0.0000000295728309333194</v>
       </c>
     </row>
     <row r="168">
@@ -2713,7 +2713,7 @@
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1964623.67415421</v>
+        <v>-0.00000000837529747632686</v>
       </c>
     </row>
     <row r="169">
@@ -2727,7 +2727,7 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>1964710.50654513</v>
+        <v>0.000000000491963869750207</v>
       </c>
     </row>
     <row r="170">
@@ -2741,7 +2741,7 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>1964754.62460134</v>
+        <v>0.0000000007686815419533</v>
       </c>
     </row>
     <row r="171">
@@ -2769,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>104038.30801054</v>
+        <v>101311.741818637</v>
       </c>
     </row>
     <row r="173">
@@ -2783,7 +2783,7 @@
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>741789.741994413</v>
+        <v>705397.617297978</v>
       </c>
     </row>
     <row r="174">
@@ -2797,7 +2797,7 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>1706738.27430119</v>
+        <v>4771.55780124582</v>
       </c>
     </row>
     <row r="175">
@@ -2811,7 +2811,7 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>1942310.11249618</v>
+        <v>7.48148958926442</v>
       </c>
     </row>
     <row r="176">
@@ -2825,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>1968186.73134057</v>
+        <v>0.0117449099416221</v>
       </c>
     </row>
     <row r="177">
@@ -2839,7 +2839,7 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>1970952.30176943</v>
+        <v>0.0000184590430516741</v>
       </c>
     </row>
     <row r="178">
@@ -2853,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>1971377.75910552</v>
+        <v>0.0000000322467808194393</v>
       </c>
     </row>
     <row r="179">
@@ -2867,7 +2867,7 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>1971505.14932294</v>
+        <v>-0.0000000163002795251427</v>
       </c>
     </row>
     <row r="180">
@@ -2881,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>1971562.95855328</v>
+        <v>0.000000000278384307949567</v>
       </c>
     </row>
     <row r="181">
@@ -2895,7 +2895,7 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>1971592.61063996</v>
+        <v>0.00000000082913309948204</v>
       </c>
     </row>
     <row r="182">
@@ -2909,7 +2909,7 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>1971607.79125209</v>
+        <v>0.000000000190909368384418</v>
       </c>
     </row>
     <row r="183">
@@ -2923,7 +2923,7 @@
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>1971615.94338221</v>
+        <v>-0.00000000000411911255118893</v>
       </c>
     </row>
     <row r="184">
@@ -2951,7 +2951,7 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>155112.810775377</v>
+        <v>151021.536446214</v>
       </c>
     </row>
     <row r="186">
@@ -2965,7 +2965,7 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>1161895.79112825</v>
+        <v>1014340.32038826</v>
       </c>
     </row>
     <row r="187">
@@ -2979,7 +2979,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>1903274.65552951</v>
+        <v>4967.7964284804</v>
       </c>
     </row>
     <row r="188">
@@ -2993,7 +2993,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>1978624.46121274</v>
+        <v>7.30692174793265</v>
       </c>
     </row>
     <row r="189">
@@ -3007,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>1982765.01786555</v>
+        <v>0.0107629807851937</v>
       </c>
     </row>
     <row r="190">
@@ -3021,7 +3021,7 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>1982586.18513595</v>
+        <v>0.0000159167173853334</v>
       </c>
     </row>
     <row r="191">
@@ -3035,7 +3035,7 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>1982275.41424209</v>
+        <v>0.0000000199772421232432</v>
       </c>
     </row>
     <row r="192">
@@ -3049,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>1982049.95959518</v>
+        <v>-0.0000000115365204289215</v>
       </c>
     </row>
     <row r="193">
@@ -3063,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>1981895.42294047</v>
+        <v>0.000000000831166820803606</v>
       </c>
     </row>
     <row r="194">
@@ -3077,7 +3077,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>1981790.59941688</v>
+        <v>0.000000000926448487621353</v>
       </c>
     </row>
     <row r="195">
@@ -3091,7 +3091,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>1981719.90772098</v>
+        <v>0.000000000179198087848982</v>
       </c>
     </row>
     <row r="196">
@@ -3105,7 +3105,7 @@
         <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>1981672.34682163</v>
+        <v>-0.0000000000130735409260446</v>
       </c>
     </row>
     <row r="197">
@@ -3133,7 +3133,7 @@
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>226351.028799003</v>
+        <v>220402.141258706</v>
       </c>
     </row>
     <row r="199">
@@ -3147,7 +3147,7 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>1523559.59859669</v>
+        <v>1395900.56328746</v>
       </c>
     </row>
     <row r="200">
@@ -3161,7 +3161,7 @@
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>1969008.03083376</v>
+        <v>116979.345060446</v>
       </c>
     </row>
     <row r="201">
@@ -3175,7 +3175,7 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>1992055.16455841</v>
+        <v>934.45868840497</v>
       </c>
     </row>
     <row r="202">
@@ -3189,7 +3189,7 @@
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>1993006.12879007</v>
+        <v>7.8579499330267</v>
       </c>
     </row>
     <row r="203">
@@ -3203,7 +3203,7 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>1993069.42995213</v>
+        <v>0.0661063750726428</v>
       </c>
     </row>
     <row r="204">
@@ -3217,7 +3217,7 @@
         <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>1993095.23555692</v>
+        <v>0.000556137412050529</v>
       </c>
     </row>
     <row r="205">
@@ -3231,7 +3231,7 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>1993115.26563381</v>
+        <v>0.00000469547667873436</v>
       </c>
     </row>
     <row r="206">
@@ -3245,7 +3245,7 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>1993133.13970782</v>
+        <v>0.0000000435496361602314</v>
       </c>
     </row>
     <row r="207">
@@ -3259,7 +3259,7 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>1993148.95061711</v>
+        <v>-0.0000000235118997292896</v>
       </c>
     </row>
     <row r="208">
@@ -3273,7 +3273,7 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>1993162.83337824</v>
+        <v>-0.00000000489727758828775</v>
       </c>
     </row>
     <row r="209">
@@ -3287,7 +3287,7 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>1993175.0873608</v>
+        <v>0.000000000548409979239617</v>
       </c>
     </row>
     <row r="210">
@@ -3315,7 +3315,7 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>314646.471070441</v>
+        <v>306553.55055774</v>
       </c>
     </row>
     <row r="212">
@@ -3329,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>1744811.84479586</v>
+        <v>1668854.68778259</v>
       </c>
     </row>
     <row r="213">
@@ -3343,7 +3343,7 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>1988817.66390954</v>
+        <v>1468331.96177931</v>
       </c>
     </row>
     <row r="214">
@@ -3357,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>1996788.81414768</v>
+        <v>140101.998655987</v>
       </c>
     </row>
     <row r="215">
@@ -3371,7 +3371,7 @@
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>1997379.55665728</v>
+        <v>8986.07040861459</v>
       </c>
     </row>
     <row r="216">
@@ -3385,7 +3385,7 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>1997710.6189639</v>
+        <v>645.184068979679</v>
       </c>
     </row>
     <row r="217">
@@ -3399,7 +3399,7 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>1997985.23962319</v>
+        <v>46.6810663296524</v>
       </c>
     </row>
     <row r="218">
@@ -3413,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>1998222.76145916</v>
+        <v>3.37940833547365</v>
       </c>
     </row>
     <row r="219">
@@ -3427,7 +3427,7 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>1998425.67347436</v>
+        <v>0.244658250536071</v>
       </c>
     </row>
     <row r="220">
@@ -3441,7 +3441,7 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>1998601.45048698</v>
+        <v>0.0177125180618477</v>
       </c>
     </row>
     <row r="221">
@@ -3455,7 +3455,7 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>1998754.46656828</v>
+        <v>0.00128238714755005</v>
       </c>
     </row>
     <row r="222">
@@ -3469,7 +3469,7 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>1998888.41628244</v>
+        <v>0.000092808557631405</v>
       </c>
     </row>
     <row r="223">
@@ -3497,7 +3497,7 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>404656.627303885</v>
+        <v>394573.220130607</v>
       </c>
     </row>
     <row r="225">
@@ -3511,7 +3511,7 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>1852851.6324928</v>
+        <v>1807104.4954689</v>
       </c>
     </row>
     <row r="226">
@@ -3525,7 +3525,7 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>1994878.41562508</v>
+        <v>1871842.77548302</v>
       </c>
     </row>
     <row r="227">
@@ -3539,7 +3539,7 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>1998384.72034678</v>
+        <v>1634470.79760246</v>
       </c>
     </row>
     <row r="228">
@@ -3553,7 +3553,7 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>1998809.88158693</v>
+        <v>906987.774405933</v>
       </c>
     </row>
     <row r="229">
@@ -3567,7 +3567,7 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>1999086.65792742</v>
+        <v>137047.354941656</v>
       </c>
     </row>
     <row r="230">
@@ -3581,7 +3581,7 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>1999296.61007367</v>
+        <v>36052.7484717637</v>
       </c>
     </row>
     <row r="231">
@@ -3595,7 +3595,7 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>1999457.03484103</v>
+        <v>11301.1127743289</v>
       </c>
     </row>
     <row r="232">
@@ -3609,7 +3609,7 @@
         <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>1999580.04486324</v>
+        <v>3723.992594573</v>
       </c>
     </row>
     <row r="233">
@@ -3623,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="D233" t="n">
-        <v>1999674.7369513</v>
+        <v>1246.96091181935</v>
       </c>
     </row>
     <row r="234">
@@ -3637,7 +3637,7 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>1999747.73123525</v>
+        <v>419.764762713435</v>
       </c>
     </row>
     <row r="235">
@@ -3651,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>1999804.26447785</v>
+        <v>141.558219662518</v>
       </c>
     </row>
   </sheetData>
